--- a/tool/按键表107.xlsx
+++ b/tool/按键表107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="2" r:id="rId1"/>
@@ -5652,26 +5652,26 @@
       <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="20" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="6.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>1026</v>
@@ -5690,7 +5690,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>850</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>847</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>844</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>841</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>838</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>835</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>854</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>855</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>828</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>825</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>822</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>819</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>816</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>813</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>810</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>807</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>804</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>802</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>798</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>795</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>792</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>789</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>786</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>783</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>780</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>777</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>774</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>771</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>768</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>765</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>762</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>759</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>756</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>753</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>750</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>747</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>744</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>741</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>738</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>735</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>732</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>729</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>726</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>723</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>720</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>717</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>714</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>711</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>708</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>705</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>702</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>699</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>696</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>693</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>690</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>687</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>684</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>681</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>678</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>675</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>672</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>669</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>666</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>663</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>660</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>657</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>654</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>651</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>648</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>645</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>642</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>639</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>636</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>633</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>630</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>627</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>624</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>621</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>618</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>615</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>612</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>609</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>606</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>603</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>600</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>597</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>594</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>591</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>588</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>585</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>582</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>579</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>576</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>573</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>570</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>567</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>564</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>560</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>556</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>553</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D102" s="17" t="s">
         <v>957</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D103" s="17" t="s">
         <v>957</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D104" s="17" t="s">
         <v>957</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D105" s="17" t="s">
         <v>957</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D106" s="17" t="s">
         <v>957</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D107" s="17" t="s">
         <v>957</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D108" s="17" t="s">
         <v>957</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D109" s="17" t="s">
         <v>957</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D110" s="17" t="s">
         <v>957</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D111" s="17" t="s">
         <v>957</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D112" s="17" t="s">
         <v>957</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D113" s="17" t="s">
         <v>957</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D114" s="17" t="s">
         <v>957</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D115" s="17" t="s">
         <v>957</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D116" s="17" t="s">
         <v>957</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D117" s="17" t="s">
         <v>957</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D118" s="17" t="s">
         <v>957</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D119" s="17" t="s">
         <v>957</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D120" s="17" t="s">
         <v>957</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D121" s="17" t="s">
         <v>957</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D122" s="17" t="s">
         <v>957</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D123" s="17" t="s">
         <v>957</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D124" s="17" t="s">
         <v>957</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="125" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D125" s="17" t="s">
         <v>957</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="126" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D126" s="17" t="s">
         <v>957</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="127" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D127" s="17" t="s">
         <v>957</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="128" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D128" s="17" t="s">
         <v>957</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="129" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D129" s="17" t="s">
         <v>957</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="130" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D130" s="17" t="s">
         <v>957</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="131" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D131" s="17" t="s">
         <v>957</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="132" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D132" s="17" t="s">
         <v>957</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="133" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D133" s="17" t="s">
         <v>957</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="134" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D134" s="17" t="s">
         <v>957</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="135" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D135" s="17" t="s">
         <v>957</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="136" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D136" s="17" t="s">
         <v>957</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="137" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D137" s="17" t="s">
         <v>957</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="138" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D138" s="17" t="s">
         <v>957</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="139" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D139" s="17" t="s">
         <v>957</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="140" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D140" s="17" t="s">
         <v>957</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D141" s="17" t="s">
         <v>957</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="142" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D142" s="17" t="s">
         <v>957</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="143" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D143" s="17" t="s">
         <v>957</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="144" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D144" s="17" t="s">
         <v>957</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D145" s="17" t="s">
         <v>957</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D146" s="17" t="s">
         <v>957</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D147" s="17" t="s">
         <v>957</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D148" s="17" t="s">
         <v>957</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D149" s="17" t="s">
         <v>957</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D150" s="17" t="s">
         <v>957</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D151" s="17" t="s">
         <v>957</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D152" s="17" t="s">
         <v>957</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C153" s="17"/>
       <c r="D153" s="17" t="s">
         <v>957</v>
@@ -10965,7 +10965,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C154" s="17"/>
       <c r="D154" s="17" t="s">
         <v>957</v>
@@ -10995,7 +10995,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C155" s="17"/>
       <c r="D155" s="17" t="s">
         <v>957</v>
@@ -11025,7 +11025,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C156" s="17"/>
       <c r="D156" s="17" t="s">
         <v>957</v>
@@ -11055,7 +11055,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C157" s="17"/>
       <c r="D157" s="17" t="s">
         <v>957</v>
@@ -11085,7 +11085,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C158" s="17"/>
       <c r="D158" s="17" t="s">
         <v>957</v>
@@ -11115,7 +11115,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:14" x14ac:dyDescent="0.15">
       <c r="F159" s="11" t="s">
         <v>1486</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:14" x14ac:dyDescent="0.15">
       <c r="F160" s="11" t="s">
         <v>1487</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="161" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F161" s="11" t="s">
         <v>1487</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="162" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F162" s="11" t="s">
         <v>1488</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="163" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F163" s="11" t="s">
         <v>1489</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="164" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F164" s="11" t="s">
         <v>1490</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="165" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F165" s="11" t="s">
         <v>1491</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="166" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F166" s="11" t="s">
         <v>1492</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="167" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F167" s="11" t="s">
         <v>1493</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="168" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F168" s="11" t="s">
         <v>1494</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="169" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F169" s="11" t="s">
         <v>1495</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="170" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F170" s="11" t="s">
         <v>1496</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="171" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F171" s="11" t="s">
         <v>1497</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="172" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F172" s="11" t="s">
         <v>1498</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="173" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F173" s="11" t="s">
         <v>1499</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="174" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F174" s="11" t="s">
         <v>1500</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="175" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F175" s="11" t="s">
         <v>1501</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="176" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F176" s="11" t="s">
         <v>1502</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="177" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F177" s="11" t="s">
         <v>1503</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="178" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F178" s="11" t="s">
         <v>1504</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="179" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F179" s="11" t="s">
         <v>1505</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="180" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F180" s="11" t="s">
         <v>1506</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="181" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F181" s="11" t="s">
         <v>1507</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="182" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F182" s="11" t="s">
         <v>1508</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="183" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F183" s="11" t="s">
         <v>1509</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="184" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F184" s="11" t="s">
         <v>1510</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="185" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F185" s="11" t="s">
         <v>1511</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="186" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F186" s="11" t="s">
         <v>1512</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="187" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F187" s="11" t="s">
         <v>1513</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="188" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F188" s="11" t="s">
         <v>1514</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="189" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F189" s="11" t="s">
         <v>1515</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="190" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F190" s="11" t="s">
         <v>1516</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="191" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F191" s="11" t="s">
         <v>1517</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="192" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F192" s="11" t="s">
         <v>1518</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="193" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F193" s="11" t="s">
         <v>1519</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="194" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F194" s="11" t="s">
         <v>1520</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="195" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F195" s="11" t="s">
         <v>1521</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="196" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F196" s="11" t="s">
         <v>1678</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="197" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F197" s="11" t="s">
         <v>1522</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="198" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F198" s="11" t="s">
         <v>1523</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="199" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F199" s="11" t="s">
         <v>1524</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="200" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F200" s="11" t="s">
         <v>1525</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="201" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F201" s="11" t="s">
         <v>1526</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="202" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F202" s="11" t="s">
         <v>1527</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="203" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F203" s="11" t="s">
         <v>1528</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="204" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F204" s="11" t="s">
         <v>1529</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="205" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F205" s="11" t="s">
         <v>1530</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="206" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F206" s="11" t="s">
         <v>1478</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="207" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F207" s="11" t="s">
         <v>1531</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="208" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F208" s="11" t="s">
         <v>1532</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="209" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F209" s="11" t="s">
         <v>1533</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="210" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F210" s="11" t="s">
         <v>1534</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="211" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F211" s="11" t="s">
         <v>1535</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="212" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F212" s="11" t="s">
         <v>1536</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="213" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F213" s="11" t="s">
         <v>1537</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="214" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J214" s="10" t="s">
         <v>422</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="215" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J215" s="10" t="s">
         <v>421</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="216" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J216" s="10" t="s">
         <v>420</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="217" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F217" s="14"/>
       <c r="G217" s="21"/>
       <c r="H217" s="21"/>
@@ -12616,7 +12616,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="218" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F218" s="11" t="s">
         <v>1600</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="219" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F219" s="11" t="s">
         <v>1601</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="220" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F220" s="11" t="s">
         <v>1602</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="221" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F221" s="11" t="s">
         <v>1603</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="222" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F222" s="11" t="s">
         <v>1604</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="223" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F223" s="11" t="s">
         <v>1605</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="224" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F224" s="11" t="s">
         <v>1606</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="225" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F225" s="11" t="s">
         <v>1607</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="226" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F226" s="11" t="s">
         <v>1608</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="227" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F227" s="11" t="s">
         <v>1609</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="228" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F228" s="11" t="s">
         <v>1610</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="229" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F229" s="11" t="s">
         <v>1611</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="230" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F230" s="11" t="s">
         <v>1612</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="231" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F231" s="11" t="s">
         <v>1611</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="232" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F232" s="11" t="s">
         <v>1612</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="233" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F233" s="11" t="s">
         <v>1613</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="234" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F234" s="11" t="s">
         <v>1614</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="235" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F235" s="11" t="s">
         <v>1615</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="236" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F236" s="11" t="s">
         <v>1616</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="237" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F237" s="11" t="s">
         <v>1617</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="238" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F238" s="11" t="s">
         <v>1618</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="239" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F239" s="11" t="s">
         <v>1619</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="240" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F240" s="11" t="s">
         <v>1620</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="241" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F241" s="11" t="s">
         <v>1621</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="242" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F242" s="11" t="s">
         <v>1622</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="243" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F243" s="11" t="s">
         <v>1623</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="244" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F244" s="11" t="s">
         <v>1624</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="245" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F245" s="11" t="s">
         <v>1625</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="246" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F246" s="11" t="s">
         <v>1626</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="247" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F247" s="11" t="s">
         <v>1627</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="248" spans="6:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:14" ht="24" x14ac:dyDescent="0.15">
       <c r="F248" s="11" t="s">
         <v>1628</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="249" spans="6:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F249" s="11" t="s">
         <v>1629</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="250" spans="6:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F250" s="11" t="s">
         <v>1630</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="251" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F251" s="11" t="s">
         <v>1631</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="252" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F252" s="11" t="s">
         <v>1632</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="253" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F253" s="11" t="s">
         <v>1633</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="254" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F254" s="11" t="s">
         <v>1634</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="255" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F255" s="11" t="s">
         <v>1635</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="256" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F256" s="11" t="s">
         <v>1636</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="257" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F257" s="11" t="s">
         <v>1637</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="258" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F258" s="11" t="s">
         <v>1638</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="259" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F259" s="11" t="s">
         <v>1639</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="260" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F260" s="11" t="s">
         <v>1640</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="261" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F261" s="11" t="s">
         <v>1641</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="262" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F262" s="11" t="s">
         <v>1642</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="263" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F263" s="11" t="s">
         <v>1643</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="264" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F264" s="11" t="s">
         <v>1644</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="265" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F265" s="11" t="s">
         <v>1645</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="266" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F266" s="11" t="s">
         <v>1646</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="267" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F267" s="11" t="s">
         <v>1647</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="268" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F268" s="11" t="s">
         <v>856</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="269" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F269" s="11" t="s">
         <v>857</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="270" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F270" s="11" t="s">
         <v>1648</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="271" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F271" s="11" t="s">
         <v>1649</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="272" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F272" s="11" t="s">
         <v>1650</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="273" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F273" s="11" t="s">
         <v>1651</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="274" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F274" s="11" t="s">
         <v>1652</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="275" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F275" s="11" t="s">
         <v>1653</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F276" s="11" t="s">
         <v>1654</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="277" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F277" s="11" t="s">
         <v>1655</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="278" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F278" s="11" t="s">
         <v>1656</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="279" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J279" s="10" t="s">
         <v>354</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="280" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J280" s="10" t="s">
         <v>353</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="281" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J281" s="10" t="s">
         <v>352</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="282" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J282" s="10" t="s">
         <v>351</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="283" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J283" s="10" t="s">
         <v>350</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="284" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J284" s="10" t="s">
         <v>349</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="285" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J285" s="10" t="s">
         <v>348</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="286" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J286" s="10" t="s">
         <v>347</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="287" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J287" s="10" t="s">
         <v>346</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="288" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:14" x14ac:dyDescent="0.15">
       <c r="J288" s="10" t="s">
         <v>345</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="289" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J289" s="10" t="s">
         <v>344</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="290" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J290" s="10" t="s">
         <v>343</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="291" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J291" s="10" t="s">
         <v>342</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="292" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J292" s="10" t="s">
         <v>341</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="293" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J293" s="10" t="s">
         <v>340</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="294" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J294" s="10" t="s">
         <v>339</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="295" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J295" s="10" t="s">
         <v>338</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="296" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J296" s="10" t="s">
         <v>337</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="297" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J297" s="10" t="s">
         <v>336</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="298" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J298" s="10" t="s">
         <v>335</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="299" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J299" s="10" t="s">
         <v>334</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="300" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J300" s="10" t="s">
         <v>333</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="301" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J301" s="10" t="s">
         <v>332</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="302" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J302" s="10" t="s">
         <v>331</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="303" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J303" s="10" t="s">
         <v>330</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="304" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J304" s="10" t="s">
         <v>329</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="305" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J305" s="10" t="s">
         <v>328</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="306" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J306" s="10" t="s">
         <v>327</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="307" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J307" s="10" t="s">
         <v>326</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="308" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J308" s="10" t="s">
         <v>325</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="309" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J309" s="10" t="s">
         <v>324</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="310" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J310" s="10" t="s">
         <v>323</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="311" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J311" s="10" t="s">
         <v>322</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="312" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J312" s="10" t="s">
         <v>321</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="313" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J313" s="10" t="s">
         <v>320</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="314" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J314" s="10" t="s">
         <v>319</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="315" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J315" s="10" t="s">
         <v>318</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="316" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J316" s="10" t="s">
         <v>317</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="317" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J317" s="10" t="s">
         <v>316</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="318" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J318" s="10" t="s">
         <v>315</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="319" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J319" s="10" t="s">
         <v>314</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="320" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J320" s="10" t="s">
         <v>313</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="321" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J321" s="10" t="s">
         <v>311</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="322" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J322" s="10" t="s">
         <v>309</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="323" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J323" s="10" t="s">
         <v>308</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="324" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J324" s="10" t="s">
         <v>307</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="325" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J325" s="10" t="s">
         <v>306</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="326" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J326" s="10" t="s">
         <v>305</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="327" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J327" s="10" t="s">
         <v>304</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="328" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J328" s="10" t="s">
         <v>303</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="329" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J329" s="10" t="s">
         <v>302</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="330" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J330" s="10" t="s">
         <v>301</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="331" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J331" s="10" t="s">
         <v>300</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="332" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J332" s="10" t="s">
         <v>299</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="333" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J333" s="10" t="s">
         <v>298</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="334" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J334" s="10" t="s">
         <v>297</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="335" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J335" s="10" t="s">
         <v>296</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="336" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J336" s="10" t="s">
         <v>295</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="337" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J337" s="10" t="s">
         <v>294</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="338" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J338" s="10" t="s">
         <v>293</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="339" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J339" s="10" t="s">
         <v>292</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="340" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J340" s="10" t="s">
         <v>291</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="341" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J341" s="10" t="s">
         <v>290</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="342" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J342" s="10" t="s">
         <v>289</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="343" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J343" s="10" t="s">
         <v>288</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="344" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J344" s="10" t="s">
         <v>287</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="345" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J345" s="10" t="s">
         <v>286</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="346" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J346" s="10" t="s">
         <v>285</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="347" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J347" s="10" t="s">
         <v>284</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="348" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J348" s="10" t="s">
         <v>283</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="349" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J349" s="10" t="s">
         <v>282</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="350" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J350" s="10" t="s">
         <v>281</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="351" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J351" s="10" t="s">
         <v>280</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="352" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="352" spans="10:14" ht="24" x14ac:dyDescent="0.15">
       <c r="J352" s="10" t="s">
         <v>279</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="353" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="353" spans="10:14" ht="24" x14ac:dyDescent="0.15">
       <c r="J353" s="10" t="s">
         <v>278</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="354" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J354" s="10" t="s">
         <v>277</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="355" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J355" s="10" t="s">
         <v>276</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="356" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="356" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J356" s="10" t="s">
         <v>275</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="357" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J357" s="10" t="s">
         <v>274</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="358" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J358" s="10" t="s">
         <v>273</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="359" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J359" s="10" t="s">
         <v>272</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="360" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J360" s="10" t="s">
         <v>271</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="361" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J361" s="10" t="s">
         <v>270</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="362" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J362" s="10" t="s">
         <v>269</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="363" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J363" s="10" t="s">
         <v>268</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="364" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J364" s="10" t="s">
         <v>267</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="365" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J365" s="10" t="s">
         <v>266</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="366" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J366" s="10" t="s">
         <v>265</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="367" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J367" s="10" t="s">
         <v>264</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="368" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J368" s="10" t="s">
         <v>263</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="369" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J369" s="10" t="s">
         <v>262</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="370" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J370" s="10" t="s">
         <v>261</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="371" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J371" s="10" t="s">
         <v>260</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="372" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J372" s="10" t="s">
         <v>259</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="373" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J373" s="10" t="s">
         <v>258</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="374" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J374" s="10" t="s">
         <v>257</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="375" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J375" s="10" t="s">
         <v>256</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="376" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J376" s="10" t="s">
         <v>255</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="377" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J377" s="10" t="s">
         <v>254</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="378" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J378" s="10" t="s">
         <v>253</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="379" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J379" s="10" t="s">
         <v>252</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="380" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J380" s="10" t="s">
         <v>251</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="381" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J381" s="10" t="s">
         <v>250</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="382" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J382" s="10" t="s">
         <v>249</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="383" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J383" s="10" t="s">
         <v>248</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="384" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J384" s="10" t="s">
         <v>247</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="385" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J385" s="10" t="s">
         <v>246</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="386" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J386" s="10" t="s">
         <v>245</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="387" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J387" s="10" t="s">
         <v>244</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="388" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J388" s="10" t="s">
         <v>243</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="389" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J389" s="10" t="s">
         <v>242</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="390" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J390" s="10" t="s">
         <v>241</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="391" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J391" s="10" t="s">
         <v>240</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="392" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J392" s="10" t="s">
         <v>239</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="393" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J393" s="10" t="s">
         <v>238</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="394" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J394" s="10" t="s">
         <v>237</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="395" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J395" s="10" t="s">
         <v>236</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="396" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J396" s="10" t="s">
         <v>235</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J397" s="10" t="s">
         <v>234</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="398" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J398" s="10" t="s">
         <v>233</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="399" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="399" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J399" s="10" t="s">
         <v>232</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="400" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="400" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J400" s="10" t="s">
         <v>231</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="401" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J401" s="10" t="s">
         <v>230</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="402" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J402" s="10" t="s">
         <v>229</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="403" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J403" s="10" t="s">
         <v>228</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="404" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J404" s="10" t="s">
         <v>227</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="405" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J405" s="10" t="s">
         <v>226</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="406" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J406" s="10" t="s">
         <v>225</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="407" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="407" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J407" s="10" t="s">
         <v>224</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="408" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J408" s="10" t="s">
         <v>223</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="409" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J409" s="10" t="s">
         <v>222</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="410" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J410" s="10" t="s">
         <v>221</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="411" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J411" s="10" t="s">
         <v>220</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="412" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J412" s="10" t="s">
         <v>219</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="413" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J413" s="10" t="s">
         <v>218</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="414" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J414" s="10" t="s">
         <v>217</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="415" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J415" s="10" t="s">
         <v>216</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="416" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J416" s="10" t="s">
         <v>215</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="417" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J417" s="10" t="s">
         <v>214</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="418" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J418" s="10" t="s">
         <v>213</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="419" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J419" s="10" t="s">
         <v>212</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="420" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J420" s="10" t="s">
         <v>211</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="421" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J421" s="10" t="s">
         <v>210</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="422" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J422" s="10" t="s">
         <v>209</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="423" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J423" s="10" t="s">
         <v>208</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="424" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J424" s="10" t="s">
         <v>207</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="425" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J425" s="10" t="s">
         <v>205</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="426" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J426" s="10" t="s">
         <v>203</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="427" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J427" s="10" t="s">
         <v>201</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="428" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J428" s="10" t="s">
         <v>199</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="429" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J429" s="10" t="s">
         <v>197</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="430" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J430" s="10" t="s">
         <v>195</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="431" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J431" s="10" t="s">
         <v>194</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="432" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J432" s="10" t="s">
         <v>192</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="433" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J433" s="10" t="s">
         <v>190</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="434" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J434" s="10" t="s">
         <v>188</v>
       </c>
@@ -16854,7 +16854,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="435" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J435" s="10" t="s">
         <v>186</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="436" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J436" s="10" t="s">
         <v>184</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="437" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J437" s="10" t="s">
         <v>182</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="438" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J438" s="10" t="s">
         <v>180</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="439" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J439" s="10" t="s">
         <v>178</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="440" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J440" s="10" t="s">
         <v>176</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="441" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J441" s="10" t="s">
         <v>174</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="442" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J442" s="10" t="s">
         <v>172</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="443" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J443" s="10" t="s">
         <v>170</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="444" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J444" s="10" t="s">
         <v>168</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="445" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J445" s="10" t="s">
         <v>166</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="446" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J446" s="10" t="s">
         <v>164</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="447" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J447" s="10" t="s">
         <v>162</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="448" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J448" s="10" t="s">
         <v>160</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="449" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J449" s="10" t="s">
         <v>158</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="450" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J450" s="10" t="s">
         <v>156</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="451" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J451" s="10" t="s">
         <v>154</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="452" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J452" s="10" t="s">
         <v>152</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="453" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J453" s="10" t="s">
         <v>150</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="454" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J454" s="10" t="s">
         <v>148</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="455" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="455" spans="10:14" ht="24" x14ac:dyDescent="0.15">
       <c r="J455" s="10" t="s">
         <v>146</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="456" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="456" spans="10:14" ht="24" x14ac:dyDescent="0.15">
       <c r="J456" s="10" t="s">
         <v>144</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="457" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J457" s="10" t="s">
         <v>142</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="458" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J458" s="10" t="s">
         <v>140</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="459" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J459" s="10" t="s">
         <v>138</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="460" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J460" s="10" t="s">
         <v>136</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="461" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J461" s="10" t="s">
         <v>134</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="462" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J462" s="10" t="s">
         <v>132</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="463" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J463" s="10" t="s">
         <v>130</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="464" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J464" s="10" t="s">
         <v>128</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="465" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J465" s="10" t="s">
         <v>126</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="466" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J466" s="10" t="s">
         <v>124</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="467" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J467" s="10" t="s">
         <v>122</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="468" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J468" s="10" t="s">
         <v>120</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="469" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J469" s="10" t="s">
         <v>118</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="470" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J470" s="10" t="s">
         <v>116</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="471" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J471" s="10" t="s">
         <v>114</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="472" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J472" s="10" t="s">
         <v>112</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="473" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J473" s="10" t="s">
         <v>110</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="474" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J474" s="10" t="s">
         <v>108</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="475" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J475" s="10" t="s">
         <v>106</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="476" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J476" s="10" t="s">
         <v>104</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="477" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J477" s="10" t="s">
         <v>102</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="478" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J478" s="10" t="s">
         <v>100</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="479" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J479" s="10" t="s">
         <v>98</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="480" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J480" s="10" t="s">
         <v>96</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="481" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J481" s="10" t="s">
         <v>94</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="482" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J482" s="10" t="s">
         <v>92</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="483" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J483" s="10" t="s">
         <v>90</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="484" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J484" s="10" t="s">
         <v>88</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="485" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J485" s="10" t="s">
         <v>86</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="486" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J486" s="10" t="s">
         <v>84</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="487" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J487" s="10" t="s">
         <v>82</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="488" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J488" s="10" t="s">
         <v>80</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="489" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J489" s="10" t="s">
         <v>78</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="490" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J490" s="10" t="s">
         <v>76</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="491" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J491" s="10" t="s">
         <v>74</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="492" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J492" s="10" t="s">
         <v>72</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="493" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J493" s="10" t="s">
         <v>70</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="494" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J494" s="10" t="s">
         <v>68</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="495" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J495" s="10" t="s">
         <v>66</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="496" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J496" s="10" t="s">
         <v>64</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="497" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J497" s="10" t="s">
         <v>62</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="498" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J498" s="10" t="s">
         <v>60</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="499" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J499" s="10" t="s">
         <v>58</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="500" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J500" s="10" t="s">
         <v>56</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="501" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J501" s="10" t="s">
         <v>54</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="502" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J502" s="10" t="s">
         <v>52</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="503" spans="10:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="503" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J503" s="10" t="s">
         <v>50</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="504" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J504" s="10" t="s">
         <v>48</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="505" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J505" s="10" t="s">
         <v>46</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="506" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J506" s="10" t="s">
         <v>44</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="507" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J507" s="10" t="s">
         <v>42</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="508" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J508" s="10" t="s">
         <v>40</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="509" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J509" s="10" t="s">
         <v>38</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="510" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J510" s="10" t="s">
         <v>36</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="511" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J511" s="10" t="s">
         <v>34</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="512" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J512" s="10" t="s">
         <v>32</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="513" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J513" s="10" t="s">
         <v>30</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="514" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J514" s="10" t="s">
         <v>28</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="515" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J515" s="10" t="s">
         <v>26</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="516" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J516" s="10" t="s">
         <v>24</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="517" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J517" s="10" t="s">
         <v>22</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="518" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J518" s="10" t="s">
         <v>20</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="519" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J519" s="10" t="s">
         <v>18</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="520" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J520" s="10" t="s">
         <v>16</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="521" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J521" s="10" t="s">
         <v>14</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="522" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J522" s="10" t="s">
         <v>12</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="523" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J523" s="10" t="s">
         <v>10</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="524" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J524" s="10" t="s">
         <v>8</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="525" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J525" s="10" t="s">
         <v>6</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="526" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J526" s="10" t="s">
         <v>4</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="527" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J527" s="10" t="s">
         <v>2</v>
       </c>
@@ -18446,15 +18446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="3" width="8.875" style="3"/>
+    <col min="4" max="4" width="16.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -18496,16 +18496,16 @@
         <v>KEY_N</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>61479</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B12" si="0">INT((A3/2^8))*2^8</f>
+        <f t="shared" ref="B3:B15" si="0">INT((A3/2^8))*2^8</f>
         <v>61440</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C12" si="1">MOD(A3,2^8)</f>
+        <f t="shared" ref="C3:C15" si="1">MOD(A3,2^8)</f>
         <v>39</v>
       </c>
       <c r="D3" s="7" t="str">
@@ -18719,13 +18719,67 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>64093</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B13,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C13,code!$G$8:$G$115,))</f>
+        <v>KEY_SMS</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>64025</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B14,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C14,code!$G$8:$G$115,))</f>
+        <v>KEY_UPSIDEKEY</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <v>64026</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B15,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C15,code!$G$8:$G$115,))</f>
+        <v>KEY_DOWNSIDEKEY</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
@@ -18759,18 +18813,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="41.5" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="18"/>
+    <col min="4" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>1679</v>
       </c>
@@ -18939,7 +18993,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D16" s="25"/>
     </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <f>HEX2DEC("A1")+19</f>
         <v>180</v>
